--- a/src/main/resources/U5646616_2022_2022.xlsx
+++ b/src/main/resources/U5646616_2022_2022.xlsx
@@ -5,22 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\IdeaProjects\taxFormFiller\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2696D0-EF24-44C4-A20D-A614AEB81952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9BAFB-0B7F-4123-B864-9457DC61F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U5646616_2022_2022" sheetId="1" r:id="rId1"/>
     <sheet name="StockInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Transactions" sheetId="3" r:id="rId3"/>
-    <sheet name="Output" sheetId="4" r:id="rId4"/>
+    <sheet name="TransactionsFormatted" sheetId="4" r:id="rId4"/>
+    <sheet name="output" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -747,687 +745,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="INFO"/>
-      <sheetName val="U5646616_2021_2021"/>
-      <sheetName val="StockInfo"/>
-      <sheetName val="Transactions"/>
-      <sheetName val="Output"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>AA</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ALCOA CORP</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>AHPI</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>ALLIED HEALTHCARE PRODUCTS</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ALEC</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ALECTOR INC</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>AMC</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>AMC ENTERTAINMENT HLDS-CL A</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>AMR</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>ALPHA METALLURGICAL RESOURCE</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>AMRC</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>AMERESCO INC-CL A</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>AMRS</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>AMYRIS INC</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>ANY</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>SPHERE 3D CORP</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>AOSL</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>ALPHA &amp; OMEGA SEMICONDUCTOR</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>APHA</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>APHRIA INC</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>APPS</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>DIGITAL TURBINE INC</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>AR</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>ANTERO RESOURCES CORP</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>ARNC</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>ARCONIC CORP</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>ARVL</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>ARRIVAL SA</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>ASAN</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>ASANA INC - CL A</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>AXON</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>AXON ENTERPRISE INC</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>BBBY</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>BED BATH &amp; BEYOND INC</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>BGFV</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>BIG 5 SPORTING GOODS CORP</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>BIG</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>BIG LOTS INC</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>BITF</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>BITFARMS LTD/CANADA</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>BLI</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>BERKELEY LIGHTS INC</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>BNTX</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>BIONTECH SE-ADR</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>BTBT</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>BIT DIGITAL INC</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>CCJ</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>CAMECO CORP</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>CELH</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>CELSIUS HOLDINGS INC</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>CLDX</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>CELLDEX THERAPEUTICS INC</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>COIN</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>COINBASE GLOBAL INC -CLASS A</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>CPE</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>CALLON PETROLEUM CO</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>CZR</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>CAESARS ENTERTAINMENT INC</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>DAC</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>DANAOS CORP</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>DMTK</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>DERMTECH INC</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>DOCN</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>DIGITALOCEAN HOLDINGS INC</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>EDIT</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>EDITAS MEDICINE INC</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>ENPH</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>ENPHASE ENERGY INC</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>EOSE</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>EOS ENERGY ENTERPRISES INC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>EQOS</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>EQONEX LTD</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>FUTU</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>FUTU HOLDINGS LTD-ADR</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>GALT</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>GALECTIN THERAPEUTICS INC</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>GLOP</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>GASLOG PARTNERS LP</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>GME</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>GAMESTOP CORP-CLASS A</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>GRTX</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>GALERA THERAPEUTICS INC</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>HUDI</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>HUADI INTERNATIONAL GROUP CO</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>IKNX</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>IKONICS CORP</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>ISEE</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>IVERIC BIO INC</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>LAC</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>LITHIUM AMERICAS CORP</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>LCID</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>LUCID GROUP INC</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>LOVE</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>LOVESAC CO/THE</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>MARA</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>MARATHON DIGITAL HOLDINGS IN</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>MTDR</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>MATADOR RESOURCES CO</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>MTTR</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>MATTERPORT INC</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>NIO</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>NIO INC - ADR</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>OEG</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>ORBITAL ENERGY GROUP INC</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>PERI</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>PERION NETWORK LTD</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>PLUG</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>PLUG POWER INC</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>PRTA</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>PROTHENA CORP PLC</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>PRVA</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>PRIVIA HEALTH GROUP INC</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>PUMP</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>PROPETRO HOLDING CORP</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>RIDE</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>LORDSTOWN MOTORS CORP-CL A</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>RIOT</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>RIOT BLOCKCHAIN INC</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>RYI</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>RYERSON HOLDING CORP</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>SBH</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>SALLY BEAUTY HOLDINGS INC</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>SEAS</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>SEAWORLD ENTERTAINMENT INC</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>SFIX</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>STITCH FIX INC-CLASS A</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>SHAK</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>SHAKE SHACK INC - CLASS A</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>SI</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>SILVERGATE CAPITAL CORP-CL A</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>SKIN</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>BEAUTY HEALTH CO/THE</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>SLI</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>STANDARD LITHIUM LTD</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>SPCE</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>VIRGIN GALACTIC HOLDINGS INC</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>TBIO</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v>TRANSLATE BIO INC</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>TLRY</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>TILRAY INC-CLASS 2 COMMON</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>TPST</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v>TEMPEST THERAPEUTICS INC</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>TTD</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>TRADE DESK INC/THE -CLASS A</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>UAA</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v>UNDER ARMOUR INC-CLASS A</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>UNFI</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>UNITED NATURAL FOODS INC</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>UPST</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v>UPSTART HOLDINGS INC</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>UPWK</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>UPWORK INC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>UROY</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v>URANIUM ROYALTY CORP</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>VERV</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v>VERVE THERAPEUTICS INC</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>VET</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>VERMILION ENERGY INC</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>VSTM</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>VERASTEM INC</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>ZI</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>ZOOMINFO TECHNOLOGIES INC-A</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>ZIM</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v>ZIM INTEGRATED SHIPPING SERV</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2101,13 +1418,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" style="14" bestFit="1" customWidth="1"/>
@@ -2181,8 +1500,8 @@
         <v>US0042251084</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>LOOKUP(A2,[1]StockInfo!$A$2:$A$83,[1]StockInfo!$B$2:$B$83)</f>
-        <v>ALCOA CORP</v>
+        <f>LOOKUP(A2,StockInfo!$A$2:$A$83,StockInfo!$B$2:$B$83)</f>
+        <v>ACADIA PHARMACEUTICALS INC</v>
       </c>
       <c r="D2" s="13">
         <f ca="1">DATE((LEFT(N2,4)),RIGHT(LEFT(N2,7),2),RIGHT(LEFT(N2,10),2) )</f>
@@ -2201,8 +1520,8 @@
         <v>491.8</v>
       </c>
       <c r="H2" s="7">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P2*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P2*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I2" s="7">
         <f ca="1">ROUND(F2*OFFSET(Transactions!$E$3,P2*2,0),2)</f>
@@ -2552,6 +1871,339 @@
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A7F08F-33F9-48F0-AAAE-375F06483D9F}">
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="str">
+        <f>TransactionsFormatted!B2</f>
+        <v>US0042251084</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>TransactionsFormatted!C2</f>
+        <v>ACADIA PHARMACEUTICALS INC</v>
+      </c>
+      <c r="C1" s="13">
+        <f ca="1">TransactionsFormatted!D2</f>
+        <v>44566</v>
+      </c>
+      <c r="D1" s="13">
+        <f ca="1">TransactionsFormatted!E2</f>
+        <v>44566</v>
+      </c>
+      <c r="E1" s="14">
+        <f ca="1">TransactionsFormatted!F2</f>
+        <v>20</v>
+      </c>
+      <c r="F1" s="7">
+        <f ca="1">TransactionsFormatted!G2</f>
+        <v>491.8</v>
+      </c>
+      <c r="G1" s="7">
+        <f ca="1">TransactionsFormatted!H2</f>
+        <v>1</v>
+      </c>
+      <c r="H1" s="7">
+        <f ca="1">TransactionsFormatted!I2</f>
+        <v>483.6</v>
+      </c>
+      <c r="I1" s="7">
+        <f>TransactionsFormatted!J2</f>
+        <v>0</v>
+      </c>
+      <c r="J1" s="16" t="str">
+        <f>TransactionsFormatted!K2</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K1" s="16" t="str">
+        <f>TransactionsFormatted!L2</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/U5646616_2022_2022.xlsx
+++ b/src/main/resources/U5646616_2022_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\IdeaProjects\taxFormFiller\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9BAFB-0B7F-4123-B864-9457DC61F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED4BA7-71A8-4639-A99C-E5C2EDE290F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Header</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Ameerika</t>
+  </si>
+  <si>
+    <t>emta</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1422,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1553,18 +1556,40 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="13"/>
+      <c r="G4" s="7">
+        <f ca="1">I2-G2</f>
+        <v>-8.1999999999999886</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E5" s="13"/>
+      <c r="G5" s="7">
+        <f ca="1">-H2</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E6" s="13"/>
+      <c r="F6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="7">
+        <f ca="1">SUM(G4:G5)</f>
+        <v>-9.1999999999999886</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E7" s="13"/>
+      <c r="G7" s="7">
+        <v>-8.1199999999999992</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8" s="13"/>
+      <c r="G8" s="7">
+        <f ca="1">G6/G7</f>
+        <v>1.133004926108373</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E9" s="13"/>
@@ -1879,17 +1904,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A7F08F-33F9-48F0-AAAE-375F06483D9F}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
@@ -1899,11 +1923,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="16" t="str">
         <f>TransactionsFormatted!B2</f>
         <v>US0042251084</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="16" t="str">
         <f>TransactionsFormatted!C2</f>
         <v>ACADIA PHARMACEUTICALS INC</v>
       </c>
@@ -1944,268 +1968,8 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D58" s="13"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D59" s="13"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D60" s="13"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D62" s="13"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="13"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="13"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="13"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" s="13"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="13"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="13"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="13"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="13"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D75" s="13"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D76" s="13"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="13"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D78" s="13"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="13"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="13"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="13"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="13"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="13"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D85" s="13"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D86" s="13"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="13"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D88" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>